--- a/web/backend/Python-services/src/data/xlsx/sample/FAMS_9.xlsx
+++ b/web/backend/Python-services/src/data/xlsx/sample/FAMS_9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C50806F-FD01-4E77-B91C-9F9408EA71F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F391D310-AC47-434D-91B7-90A17DFE2A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="5184" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="706">
   <si>
     <t>Họ và Tên</t>
   </si>
@@ -2136,6 +2136,9 @@
   </si>
   <si>
     <t>Vật lý, Hóa học</t>
+  </si>
+  <si>
+    <t>Số lượng tiết học có thể dạy cho 1 tuần</t>
   </si>
 </sst>
 </file>
@@ -2164,7 +2167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2187,14 +2190,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2500,7 +2576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V120" sqref="V120"/>
     </sheetView>
   </sheetViews>
@@ -5630,556 +5706,625 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I1:I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="45.125" customWidth="1"/>
+    <col min="9" max="9" width="43.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="I1" s="9" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="I2" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="I3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="I4" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="4" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="I5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="I6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="I7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="I8" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="I9" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="I10" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="4" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="I11" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="4" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="I12" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="4" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="I13" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="4" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="I14" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="4" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="I15" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="4" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="I16" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="4" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="I17" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="4" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="I18" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="4" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="I19" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="4" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="I20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="7" t="s">
         <v>612</v>
+      </c>
+      <c r="I21" s="8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
